--- a/src/test/resources/products.xlsx
+++ b/src/test/resources/products.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7650"/>
+    <workbookView windowWidth="28695" windowHeight="12015" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="productNames" sheetId="1" r:id="rId1"/>
+    <sheet name="Categories" sheetId="2" r:id="rId2"/>
+    <sheet name="Travel" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Products</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
   <si>
     <t>Mobile</t>
   </si>
@@ -32,19 +31,248 @@
   </si>
   <si>
     <t>Laptops</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Fashion</t>
+  </si>
+  <si>
+    <t>Men's Top Wear</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Men's T-Shirts</t>
+  </si>
+  <si>
+    <t>Men's Casual Shirts</t>
+  </si>
+  <si>
+    <t>Men's Formal Shirts</t>
+  </si>
+  <si>
+    <t>Men's Kurthas</t>
+  </si>
+  <si>
+    <t>Men's Ethnic Sets</t>
+  </si>
+  <si>
+    <t>Men's Blazers</t>
+  </si>
+  <si>
+    <t>Men's Raincoat</t>
+  </si>
+  <si>
+    <t>Men's WindCheaters</t>
+  </si>
+  <si>
+    <t>Men's Suit</t>
+  </si>
+  <si>
+    <t>Men's Fabrics</t>
+  </si>
+  <si>
+    <t>Men's Bottom Wear</t>
+  </si>
+  <si>
+    <t>Men's Jeans</t>
+  </si>
+  <si>
+    <t>Men's Trousers</t>
+  </si>
+  <si>
+    <t>Men's Trackpants</t>
+  </si>
+  <si>
+    <t>Men's Shorts</t>
+  </si>
+  <si>
+    <t>Men's Cargos</t>
+  </si>
+  <si>
+    <t>Men's Threefourths</t>
+  </si>
+  <si>
+    <t>Men's Pyjamas &amp; Loungepants</t>
+  </si>
+  <si>
+    <t>Men's Dhoti</t>
+  </si>
+  <si>
+    <t>Women Ethnic</t>
+  </si>
+  <si>
+    <t>Women Sarees</t>
+  </si>
+  <si>
+    <t>Women Kurta's &amp; Kurtis</t>
+  </si>
+  <si>
+    <t>Women Kurta Seats &amp; Salwar Suits</t>
+  </si>
+  <si>
+    <t>Ethinc Dresses</t>
+  </si>
+  <si>
+    <t>Women Dress Materials</t>
+  </si>
+  <si>
+    <t>Women Gowns</t>
+  </si>
+  <si>
+    <t>Women Lehenga Cholis</t>
+  </si>
+  <si>
+    <t>Women Legging's &amp; patlalas</t>
+  </si>
+  <si>
+    <t>Women Patazzos &amp; sharazas</t>
+  </si>
+  <si>
+    <t>Women Blouse</t>
+  </si>
+  <si>
+    <t>Women Dupatts</t>
+  </si>
+  <si>
+    <t>Men Footwear</t>
+  </si>
+  <si>
+    <t>Men's Sports Shoes</t>
+  </si>
+  <si>
+    <t>Men's Causal Shoes</t>
+  </si>
+  <si>
+    <t>Men's Sandal's &amp; Flip Floops</t>
+  </si>
+  <si>
+    <t>Men's Formal Shoes</t>
+  </si>
+  <si>
+    <t>Men's Ethnic Shoes</t>
+  </si>
+  <si>
+    <t>Shoe Care</t>
+  </si>
+  <si>
+    <t>Watches and Accesories</t>
+  </si>
+  <si>
+    <t>Men's Women Watches</t>
+  </si>
+  <si>
+    <t>Men &amp; Women Sunglasses</t>
+  </si>
+  <si>
+    <t>Wallets</t>
+  </si>
+  <si>
+    <t>Men &amp; Women Belts</t>
+  </si>
+  <si>
+    <t>Men Fashion Jewellery</t>
+  </si>
+  <si>
+    <t>Precious Articles</t>
+  </si>
+  <si>
+    <t>kids Accessories</t>
+  </si>
+  <si>
+    <t>Women Fashion Jewellery</t>
+  </si>
+  <si>
+    <t>Bags, Sultcases &amp; Luggage</t>
+  </si>
+  <si>
+    <t>Bags &amp; Backpacks</t>
+  </si>
+  <si>
+    <t>Suitcases &amp; Trolleys</t>
+  </si>
+  <si>
+    <t>Dufflebags</t>
+  </si>
+  <si>
+    <t>Rucksacks</t>
+  </si>
+  <si>
+    <t>Handbags</t>
+  </si>
+  <si>
+    <t>Slingbags</t>
+  </si>
+  <si>
+    <t>Messanger Bags</t>
+  </si>
+  <si>
+    <t>Travel Accessories</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>toLocation</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -53,8 +281,145 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,135 +432,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -206,31 +442,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,25 +592,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +610,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,6 +633,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -419,6 +670,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -429,21 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,30 +716,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -497,159 +724,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -970,13 +1218,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
@@ -1003,9 +1251,745 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="8.9" customWidth="1"/>
+    <col min="2" max="2" width="23.1" customWidth="1"/>
+    <col min="3" max="3" width="29.6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>8</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="12.75" outlineLevelRow="3" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="7.9" customWidth="1"/>
+    <col min="2" max="2" width="9.6" customWidth="1"/>
+    <col min="3" max="3" width="6.2" customWidth="1"/>
+    <col min="4" max="4" width="8.3" customWidth="1"/>
+    <col min="5" max="5" width="3.8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="E2" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2025</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2025</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
